--- a/results/FrequencyTables/27974196_gTatRev.xlsx
+++ b/results/FrequencyTables/27974196_gTatRev.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.040213000367242</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0194638266617701</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.00367242012486228</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.999081894968784</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000734484024972457</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000918105031215571</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.998898273962541</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000183621006243114</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000550863018729343</v>
       </c>
       <c r="M2">
-        <v>0.97</v>
+        <v>0.999081894968784</v>
       </c>
       <c r="N2">
-        <v>0.98</v>
+        <v>0.997980168931326</v>
       </c>
       <c r="O2">
-        <v>0.02</v>
+        <v>0.000734484024972457</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.999449136981271</v>
       </c>
       <c r="Q2">
-        <v>0.99</v>
+        <v>0.998714652956298</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00110172603745869</v>
       </c>
       <c r="S2">
-        <v>0.01</v>
+        <v>0.0328681601175174</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00146896804994491</v>
       </c>
       <c r="U2">
-        <v>0.01</v>
+        <v>0.0146896804994491</v>
       </c>
       <c r="V2">
-        <v>0.99</v>
+        <v>0.986044803525523</v>
       </c>
       <c r="W2">
-        <v>0.03</v>
+        <v>0.00697759823723834</v>
       </c>
       <c r="X2">
-        <v>0.99</v>
+        <v>0.972824091076019</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,19 +539,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.936834373852369</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.976312890194638</v>
       </c>
       <c r="D3">
-        <v>0.02</v>
+        <v>0.0609621740727139</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>0.000367242012486228</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.999816378993757</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.02</v>
+        <v>0.000367242012486228</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.99</v>
+        <v>0.937752478883584</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000367242012486228</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00477414616232097</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00110172603745869</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00183621006243114</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000550863018729343</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000550863018729343</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.998898273962541</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.998714652956298</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00110172603745869</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.999632757987514</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.999081894968784</v>
       </c>
       <c r="M4">
-        <v>0.01</v>
+        <v>0.000550863018729343</v>
       </c>
       <c r="N4">
-        <v>0.02</v>
+        <v>0.00201983106867426</v>
       </c>
       <c r="O4">
-        <v>0.98</v>
+        <v>0.999081894968784</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000550863018729343</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00110172603745869</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.998347410943812</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000183621006243114</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.997980168931326</v>
       </c>
       <c r="U4">
-        <v>0.99</v>
+        <v>0.984392214469335</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.012853470437018</v>
       </c>
       <c r="W4">
-        <v>0.97</v>
+        <v>0.992471538744032</v>
       </c>
       <c r="X4">
-        <v>0.01</v>
+        <v>0.0119353654058024</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,28 +687,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0211164157179581</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0012853470437018</v>
       </c>
       <c r="D5">
-        <v>0.96</v>
+        <v>0.933896437752479</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000183621006243114</v>
       </c>
       <c r="F5">
-        <v>0.99</v>
+        <v>0.998714652956298</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000367242012486228</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000367242012486228</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000183621006243114</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -732,28 +732,28 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.01</v>
+        <v>0.000183621006243114</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000183621006243114</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.027359529930224</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000183621006243114</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000183621006243114</v>
       </c>
       <c r="V5">
-        <v>0.01</v>
+        <v>0.000367242012486228</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00863018729342637</v>
       </c>
     </row>
   </sheetData>
